--- a/pdfs/Callison - Q&A Report.xlsx
+++ b/pdfs/Callison - Q&A Report.xlsx
@@ -5,22 +5,33 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mygsu-my.sharepoint.com/personal/yhuang63_gsu_edu/Documents/GSU-WORK/Github@TOPS/test_website_tops/pdfs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reinah/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF77A897-1AE2-3142-9C33-318641CAD7F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47A20232-9EF4-E04B-8FC3-DD898FBD860C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1500" windowWidth="24100" windowHeight="15940"/>
+    <workbookView xWindow="1220" yWindow="1000" windowWidth="24020" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Callison - Q&amp;A Report" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>Question Report</t>
   </si>
@@ -37,12 +48,6 @@
     <t>Actual Start Time</t>
   </si>
   <si>
-    <t>Actual Duration (minutes)</t>
-  </si>
-  <si>
-    <t># Question</t>
-  </si>
-  <si>
     <t>Tobacco Online Policy Seminar (TOPS)</t>
   </si>
   <si>
@@ -61,48 +66,24 @@
     <t>Asker Name</t>
   </si>
   <si>
-    <t>Asker Email</t>
-  </si>
-  <si>
-    <t>Answer</t>
-  </si>
-  <si>
     <t>Question Time</t>
   </si>
   <si>
     <t>Answered Time</t>
   </si>
   <si>
-    <t>Answer Name</t>
-  </si>
-  <si>
-    <t>Answer Email</t>
-  </si>
-  <si>
     <t>Why not include accommodation and food services as an industry, which has a high smoking rate?</t>
   </si>
   <si>
     <t>Christian Saenz</t>
   </si>
   <si>
-    <t>Csaenz1@student.gsu.edu</t>
-  </si>
-  <si>
-    <t>live answered</t>
-  </si>
-  <si>
     <t>05/19/2023 12:26:00</t>
   </si>
   <si>
     <t>05/19/2023 12:33:24</t>
   </si>
   <si>
-    <t>Ce Shang</t>
-  </si>
-  <si>
-    <t>Ce.Shang@osumc.edu</t>
-  </si>
-  <si>
     <t>the age group you choose probably is experiencing some tobacco related health problems at that point in their life. can you examine younger ages who also smoke but haven't accrued the health complications yet?</t>
   </si>
   <si>
@@ -118,33 +99,18 @@
     <t>Norbert Zillatron Schmidt</t>
   </si>
   <si>
-    <t>norbert.schmidt@posteo.de</t>
-  </si>
-  <si>
     <t>05/19/2023 12:36:12</t>
   </si>
   <si>
     <t>05/19/2023 12:36:53</t>
   </si>
   <si>
-    <t>Mike Pesko</t>
-  </si>
-  <si>
-    <t>mikepesko@gmail.com</t>
-  </si>
-  <si>
-    <t>The claims don't do a great job of separating out different types of tobacco product use, but there is some information on different types of use. I believe we use any type of tobacco product use as any type of tobacco product use could conceivably be treated with counseling, for example.</t>
-  </si>
-  <si>
     <t>05/19/2023 12:39:51</t>
   </si>
   <si>
     <t>What part of the PSL is attributable to smoking related health issues?</t>
   </si>
   <si>
-    <t>We're primarily study if PSL impacts counseling or prescription fills. PSL could increase doctor visits for example, which could lead to more opportunities for smoking cessation treatment. We don't see evidence of any increase, though, as Kevin just explained.</t>
-  </si>
-  <si>
     <t>05/19/2023 12:38:20</t>
   </si>
   <si>
@@ -157,9 +123,6 @@
     <t>Alana Waloszek</t>
   </si>
   <si>
-    <t>alana.waloszek@hc-sc.gc.ca</t>
-  </si>
-  <si>
     <t>05/19/2023 12:45:22</t>
   </si>
   <si>
@@ -170,12 +133,6 @@
   </si>
   <si>
     <t>Samuel Asare</t>
-  </si>
-  <si>
-    <t>samuel.asare@cancer.org</t>
-  </si>
-  <si>
-    <t>Yes, here is the link for that paper: https://jhr.uwpress.org/content/early/2020/05/04/jhr.57.4.1017-9124R2.</t>
   </si>
   <si>
     <t>05/19/2023 12:47:35</t>
@@ -615,95 +572,95 @@
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="2" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="3" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="4" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="5" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="6" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="7" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="8" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="9" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="10" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="11" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="12" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="13" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="14" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="15" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="16" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="17" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="18" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="20" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="21" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="22" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="23" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="24" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="25" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="27" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="28" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="29" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="30" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="31" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="32" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="33" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="34" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="35" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="36" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="37" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="38" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="39" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="40" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1015,18 +972,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1034,7 +993,7 @@
         <v>45065.556250000001</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1044,294 +1003,174 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
+      <c r="B4" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
       </c>
       <c r="C4" s="1">
         <v>45065.477777777778</v>
       </c>
-      <c r="D4">
-        <v>86</v>
-      </c>
-      <c r="E4">
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" t="s">
         <v>35</v>
       </c>
-      <c r="I13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/pdfs/Callison - Q&A Report.xlsx
+++ b/pdfs/Callison - Q&A Report.xlsx
@@ -1,32 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reinah/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47A20232-9EF4-E04B-8FC3-DD898FBD860C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{DAC1FD17-B40F-6C47-B6BA-86CF0387D10D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1220" yWindow="1000" windowWidth="24020" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Callison - Q&amp;A Report" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -45,7 +34,7 @@
     <t>Webinar ID</t>
   </si>
   <si>
-    <t>Actual Start Time</t>
+    <t># Question</t>
   </si>
   <si>
     <t>Tobacco Online Policy Seminar (TOPS)</t>
@@ -63,7 +52,7 @@
     <t>Question</t>
   </si>
   <si>
-    <t>Asker Name</t>
+    <t>Answer</t>
   </si>
   <si>
     <t>Question Time</t>
@@ -75,7 +64,7 @@
     <t>Why not include accommodation and food services as an industry, which has a high smoking rate?</t>
   </si>
   <si>
-    <t>Christian Saenz</t>
+    <t>live answered</t>
   </si>
   <si>
     <t>05/19/2023 12:26:00</t>
@@ -96,21 +85,24 @@
     <t>you talk abou "tobacco use". Do you differentiate between smoking and non-combustible?</t>
   </si>
   <si>
-    <t>Norbert Zillatron Schmidt</t>
-  </si>
-  <si>
     <t>05/19/2023 12:36:12</t>
   </si>
   <si>
     <t>05/19/2023 12:36:53</t>
   </si>
   <si>
+    <t>The claims don't do a great job of separating out different types of tobacco product use, but there is some information on different types of use. I believe we use any type of tobacco product use as any type of tobacco product use could conceivably be treated with counseling, for example.</t>
+  </si>
+  <si>
     <t>05/19/2023 12:39:51</t>
   </si>
   <si>
     <t>What part of the PSL is attributable to smoking related health issues?</t>
   </si>
   <si>
+    <t>We're primarily study if PSL impacts counseling or prescription fills. PSL could increase doctor visits for example, which could lead to more opportunities for smoking cessation treatment. We don't see evidence of any increase, though, as Kevin just explained.</t>
+  </si>
+  <si>
     <t>05/19/2023 12:38:20</t>
   </si>
   <si>
@@ -120,9 +112,6 @@
     <t>Do you think this is impacted by the family dr. shortage?</t>
   </si>
   <si>
-    <t>Alana Waloszek</t>
-  </si>
-  <si>
     <t>05/19/2023 12:45:22</t>
   </si>
   <si>
@@ -132,7 +121,7 @@
     <t>Hi Mike, Please, can you refer me to the JHR paper on non-parallel trends? Thanks</t>
   </si>
   <si>
-    <t>Samuel Asare</t>
+    <t>Yes, here is the link for that paper: https://jhr.uwpress.org/content/early/2020/05/04/jhr.57.4.1017-9124R2.</t>
   </si>
   <si>
     <t>05/19/2023 12:47:35</t>
@@ -572,95 +561,95 @@
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="2" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="3" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="4" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="5" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="6" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="7" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="8" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="9" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="10" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="11" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="12" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="13" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="14" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="15" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="16" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="17" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="18" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="20" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="21" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="22" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="23" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="24" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="25" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="27" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="28" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="29" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="30" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="31" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="32" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="33" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="34" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="35" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="36" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="37" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="38" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="39" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="40" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -975,7 +964,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1011,8 +1000,8 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1">
-        <v>45065.477777777778</v>
+      <c r="C4">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1079,13 +1068,13 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1096,10 +1085,10 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
         <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10" t="s">
         <v>24</v>
@@ -1113,13 +1102,13 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1127,10 +1116,10 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
         <v>30</v>
